--- a/Tests/baseline_short_sma_5_25_DDD.xlsx
+++ b/Tests/baseline_short_sma_5_25_DDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Windows\Documents\bt_plat\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D8BD38-262B-4438-93A0-EFFF7192CF9E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58F2828-F21C-4736-8DB5-7204D0ACE3D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:L1048576"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3083,7 +3083,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
